--- a/biology/Médecine/Annie_Thébaud-Mony/Annie_Thébaud-Mony.xlsx
+++ b/biology/Médecine/Annie_Thébaud-Mony/Annie_Thébaud-Mony.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Annie_Th%C3%A9baud-Mony</t>
+          <t>Annie_Thébaud-Mony</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annie Thébaud-Mony, née le 5 octobre 1944[1], est une sociologue française de la santé, connue pour ses recherches et son travail associatif sur les maladies professionnelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Thébaud-Mony, née le 5 octobre 1944, est une sociologue française de la santé, connue pour ses recherches et son travail associatif sur les maladies professionnelles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annie_Th%C3%A9baud-Mony</t>
+          <t>Annie_Thébaud-Mony</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,52 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est directrice de l'unité Inserm GISCOP93 (Groupement d'Intérêt Scientifique sur les Cancers d’Origine Professionnelle) à l'Université Paris 13[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est directrice de l'unité Inserm GISCOP93 (Groupement d'Intérêt Scientifique sur les Cancers d’Origine Professionnelle) à l'Université Paris 13.
 Elle est responsable scientifique d'un programme de sociologie comparée de la production de connaissances en santé au travail : France, Brésil, Québec, Japon (ANR)
 Elle préside l'association Henri Pézerat (santé, travail, environnement), directeur de recherches au CNRS, toxicologue, lanceur d'alerte, décédé en 2009, dont elle fut la compagne. 
-Le 31 juillet 2012, elle refuse la Légion d'honneur, afin de dénoncer l'« indifférence » qui touche la santé au travail et l'impunité des « crimes industriels »[3]. Elle écrit une lettre à la ministre chargée de l’Égalité des territoires et du Logement, Cécile Duflot, pour expliquer pourquoi[4]. Elle y dénonce un manque de financement de ce secteur de recherche.
-Elle est porte-parole de Ban Asbestos France, une association française s’occupant des risques engendrés par l’amiante[5].
-Vie privée
-Elle est mère de trois enfants.
+Le 31 juillet 2012, elle refuse la Légion d'honneur, afin de dénoncer l'« indifférence » qui touche la santé au travail et l'impunité des « crimes industriels ». Elle écrit une lettre à la ministre chargée de l’Égalité des territoires et du Logement, Cécile Duflot, pour expliquer pourquoi. Elle y dénonce un manque de financement de ce secteur de recherche.
+Elle est porte-parole de Ban Asbestos France, une association française s’occupant des risques engendrés par l’amiante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annie_Thébaud-Mony</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annie_Th%C3%A9baud-Mony</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mère de trois enfants.
 </t>
         </is>
       </c>
